--- a/2-PERSONAL/3-CONTRATOS/08-07-22 Firmar contratos.xlsx
+++ b/2-PERSONAL/3-CONTRATOS/08-07-22 Firmar contratos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\3-CONTRATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF70AB4-F128-4C8B-8E60-5F8EEC33802E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8111CF4A-0E1F-4421-9D9E-7E2EDF3DBBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A1D17F5D-EFE5-4EB8-BB4F-D100E795E022}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="417">
   <si>
     <t>CONTRATOS</t>
   </si>
@@ -1232,6 +1232,63 @@
   </si>
   <si>
     <t>JORDY JAMPIER</t>
+  </si>
+  <si>
+    <t>AGUIRRE JULCAMANYAN</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>ALVAREZ CANALES</t>
+  </si>
+  <si>
+    <t>JENNY ISABEL</t>
+  </si>
+  <si>
+    <t>HUARI NAVARRO</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>LOAYZA VILLALOBOS</t>
+  </si>
+  <si>
+    <t>NICOLE</t>
+  </si>
+  <si>
+    <t>MARCIAL MOLINA</t>
+  </si>
+  <si>
+    <t>SARA MELISSA</t>
+  </si>
+  <si>
+    <t>MEDINA NAVARRO</t>
+  </si>
+  <si>
+    <t>RUEDA VASQUEZ</t>
+  </si>
+  <si>
+    <t>DARLING</t>
+  </si>
+  <si>
+    <t>TORRES MARQUEZ</t>
+  </si>
+  <si>
+    <t>SANDRA PAOLA</t>
+  </si>
+  <si>
+    <t>YUPAN FRANCIA</t>
+  </si>
+  <si>
+    <t>DEYSI JANET</t>
+  </si>
+  <si>
+    <t>ZEVALLOS ZEVALLOS</t>
+  </si>
+  <si>
+    <t>MILAGROS RUBI</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,6 +1378,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1349,7 +1412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1426,18 +1489,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1767,7 +1837,7 @@
   <dimension ref="A1:L205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7820,20 +7890,20 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
     <col min="8" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7843,7 +7913,6 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -7853,7 +7922,6 @@
       <c r="A2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -7896,13 +7964,13 @@
     </row>
     <row r="4" spans="1:11" s="27" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
-        <v>44688</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>125</v>
+        <v>44659</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>358</v>
       </c>
       <c r="D4" s="25">
         <v>44743</v>
@@ -7923,10 +7991,10 @@
       <c r="A5" s="25">
         <v>44663</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="33" t="s">
         <v>140</v>
       </c>
       <c r="D5" s="25">
@@ -8015,10 +8083,10 @@
       <c r="A9" s="25">
         <v>44663</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>321</v>
       </c>
       <c r="D9" s="25">
@@ -8037,64 +8105,64 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" s="27" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>44749</v>
+      <c r="A10" s="25">
+        <v>44663</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="D10" s="28">
-        <v>44723</v>
-      </c>
-      <c r="E10" s="28">
-        <v>44813</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+        <v>325</v>
+      </c>
+      <c r="D10" s="25">
+        <v>44743</v>
+      </c>
+      <c r="E10" s="25">
+        <v>44773</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" s="27" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>44749</v>
+      <c r="A11" s="25">
+        <v>44663</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="D11" s="28">
-        <v>44727</v>
-      </c>
-      <c r="E11" s="28">
-        <v>44817</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
+        <v>364</v>
+      </c>
+      <c r="D11" s="25">
+        <v>44743</v>
+      </c>
+      <c r="E11" s="25">
+        <v>44804</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" s="27" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>44663</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>325</v>
+      <c r="B12" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>375</v>
       </c>
       <c r="D12" s="25">
         <v>44743</v>
@@ -8107,7 +8175,9 @@
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
@@ -8134,13 +8204,13 @@
     </row>
     <row r="14" spans="1:11" s="27" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
-        <v>44659</v>
+        <v>44688</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>357</v>
+        <v>124</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>358</v>
+        <v>125</v>
       </c>
       <c r="D14" s="25">
         <v>44743</v>
@@ -8161,22 +8231,22 @@
       <c r="A15" s="28">
         <v>44749</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="D15" s="28">
-        <v>44727</v>
-      </c>
-      <c r="E15" s="28">
-        <v>44817</v>
+      <c r="B15" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" s="25">
+        <v>44743</v>
+      </c>
+      <c r="E15" s="25">
+        <v>44833</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="30"/>
+        <v>392</v>
+      </c>
+      <c r="G15" s="29"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -8186,11 +8256,11 @@
       <c r="A16" s="28">
         <v>44749</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>380</v>
+      <c r="B16" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>379</v>
       </c>
       <c r="D16" s="28">
         <v>44723</v>
@@ -8201,7 +8271,7 @@
       <c r="F16" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -8211,35 +8281,35 @@
       <c r="A17" s="28">
         <v>44749</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>382</v>
+      <c r="B17" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>388</v>
       </c>
       <c r="D17" s="28">
-        <v>44723</v>
+        <v>44727</v>
       </c>
       <c r="E17" s="28">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="27" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="27" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>44663</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="30" t="s">
         <v>362</v>
       </c>
       <c r="D18" s="25">
@@ -8251,7 +8321,9 @@
       <c r="F18" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="G18" s="26"/>
+      <c r="G18" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
         <v>16</v>
@@ -8260,39 +8332,39 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" s="27" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
-        <v>44663</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="D19" s="25">
-        <v>44743</v>
-      </c>
-      <c r="E19" s="25">
-        <v>44804</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="A19" s="28">
+        <v>44749</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D19" s="28">
+        <v>44727</v>
+      </c>
+      <c r="E19" s="28">
+        <v>44817</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" s="27" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>44749</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>384</v>
+      <c r="B20" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>380</v>
       </c>
       <c r="D20" s="28">
         <v>44723</v>
@@ -8303,47 +8375,45 @@
       <c r="F20" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" s="27" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
-        <v>44663</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="D21" s="25">
-        <v>44743</v>
-      </c>
-      <c r="E21" s="25">
-        <v>44773</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" s="27" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>44749</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="28">
+        <v>44723</v>
+      </c>
+      <c r="E21" s="28">
+        <v>44813</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" s="27" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>44749</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="31" t="s">
         <v>393</v>
       </c>
       <c r="D22" s="28">
@@ -8355,20 +8425,22 @@
       <c r="F22" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" s="27" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="27" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>44749</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="31" t="s">
         <v>276</v>
       </c>
       <c r="D23" s="25">
@@ -8380,20 +8452,22 @@
       <c r="F23" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" s="27" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="27" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>44749</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="31" t="s">
         <v>395</v>
       </c>
       <c r="D24" s="25">
@@ -8405,7 +8479,9 @@
       <c r="F24" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="G24" s="30"/>
+      <c r="G24" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="21"/>
@@ -8415,37 +8491,304 @@
       <c r="A25" s="28">
         <v>44749</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="D25" s="25">
-        <v>44743</v>
-      </c>
-      <c r="E25" s="25">
-        <v>44833</v>
+      <c r="B25" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="D25" s="28">
+        <v>44723</v>
+      </c>
+      <c r="E25" s="28">
+        <v>44813</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="G25" s="30"/>
+        <v>54</v>
+      </c>
+      <c r="G25" s="29"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>44754</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="D26" s="28">
+        <v>44743</v>
+      </c>
+      <c r="E26" s="28">
+        <v>44833</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>44754</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" s="28">
+        <v>44743</v>
+      </c>
+      <c r="E27" s="28">
+        <v>44833</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>44754</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="D28" s="28">
+        <v>44743</v>
+      </c>
+      <c r="E28" s="28">
+        <v>44833</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>44754</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="D29" s="28">
+        <v>44743</v>
+      </c>
+      <c r="E29" s="28">
+        <v>44833</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>44754</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D30" s="28">
+        <v>44743</v>
+      </c>
+      <c r="E30" s="28">
+        <v>44833</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>44754</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="D31" s="28">
+        <v>44743</v>
+      </c>
+      <c r="E31" s="28">
+        <v>44833</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>44754</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="28">
+        <v>44743</v>
+      </c>
+      <c r="E32" s="28">
+        <v>44833</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
+        <v>44754</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" s="28">
+        <v>44743</v>
+      </c>
+      <c r="E33" s="28">
+        <v>44833</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
+        <v>44754</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="D34" s="28">
+        <v>44743</v>
+      </c>
+      <c r="E34" s="28">
+        <v>44833</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <v>44754</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="D35" s="28">
+        <v>44743</v>
+      </c>
+      <c r="E35" s="28">
+        <v>44833</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>44754</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D36" s="28">
+        <v>44743</v>
+      </c>
+      <c r="E36" s="28">
+        <v>44833</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:K25" xr:uid="{B19E4DA1-AC88-48A4-9BC8-AEAAB7983B32}">
     <filterColumn colId="1">
       <colorFilter dxfId="0"/>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K21">
-      <sortCondition ref="B3:B21"/>
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K36">
+      <sortCondition ref="A3:A25"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>